--- a/Paginas_Interes/Paginas_Interes.xlsx
+++ b/Paginas_Interes/Paginas_Interes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Tema </t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Heroku</t>
+  </si>
+  <si>
+    <t>Tutoriales Excel</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/user/Josematube/playlists</t>
   </si>
 </sst>
 </file>
@@ -380,14 +386,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="84.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
   </cols>
@@ -433,11 +440,20 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
